--- a/Base/Teams/Bears/2021 Team Data.xlsx
+++ b/Base/Teams/Bears/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bears/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_136CEBD9EFEB37463DABB040410E9E65C6DD2BED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4382A038-6F31-4B0A-84E1-1B7837A805E2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1</t>
-  </si>
-  <si>
-    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7</t>
-  </si>
-  <si>
-    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3</t>
-  </si>
-  <si>
-    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7</t>
+    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6</t>
+  </si>
+  <si>
+    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11</t>
+  </si>
+  <si>
+    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2</t>
+  </si>
+  <si>
+    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +167,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66</t>
-  </si>
-  <si>
-    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22</t>
-  </si>
-  <si>
-    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15</t>
-  </si>
-  <si>
-    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39</t>
-  </si>
-  <si>
-    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0</t>
-  </si>
-  <si>
-    <t>3 0 0 4 0 6 0 17 0 21 0 11 27 0 0 13 0 0 0 0 0 0 0 0 0 0 4 0 0 22 5 13 0 -1</t>
+    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64</t>
+  </si>
+  <si>
+    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18</t>
+  </si>
+  <si>
+    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27</t>
+  </si>
+  <si>
+    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38</t>
+  </si>
+  <si>
+    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -668,19 +718,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,60 +739,60 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="M2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +804,7 @@
         <v>110</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,52 +993,52 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>38</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
       <c r="J2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -996,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -1005,19 +1055,19 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1079,7 @@
         <v>123</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,33 +1262,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2">
         <v>110</v>
@@ -1263,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,33 +1371,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1354,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,51 +1450,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Bears/2021 Team Data.xlsx
+++ b/Base/Teams/Bears/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bears/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_136CEBD9EFEB37463DABB040410E9E65C6DD2BED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4382A038-6F31-4B0A-84E1-1B7837A805E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6</t>
-  </si>
-  <si>
-    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11</t>
-  </si>
-  <si>
-    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2</t>
-  </si>
-  <si>
-    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14</t>
+    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17</t>
+  </si>
+  <si>
+    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5</t>
+  </si>
+  <si>
+    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9</t>
+  </si>
+  <si>
+    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64</t>
-  </si>
-  <si>
-    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18</t>
-  </si>
-  <si>
-    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27</t>
-  </si>
-  <si>
-    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38</t>
-  </si>
-  <si>
-    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0</t>
+    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60</t>
+  </si>
+  <si>
+    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19</t>
+  </si>
+  <si>
+    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18</t>
+  </si>
+  <si>
+    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54</t>
+  </si>
+  <si>
+    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15</t>
+  </si>
+  <si>
+    <t>0 0 34 0 97 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -718,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -751,10 +701,10 @@
         <v>103</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>9</v>
@@ -763,45 +713,45 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
         <v>27</v>
       </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
       <c r="I3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -813,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>360</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1026,57 +976,57 @@
         <v>114</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M3">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -1088,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>355</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,27 +1210,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1291,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1409,21 +1357,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>0</v>

--- a/Base/Teams/Bears/2021 Team Data.xlsx
+++ b/Base/Teams/Bears/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17</t>
-  </si>
-  <si>
-    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5</t>
-  </si>
-  <si>
-    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9</t>
-  </si>
-  <si>
-    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3</t>
+    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3</t>
+  </si>
+  <si>
+    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19</t>
+  </si>
+  <si>
+    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1</t>
+  </si>
+  <si>
+    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60</t>
-  </si>
-  <si>
-    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19</t>
-  </si>
-  <si>
-    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18</t>
-  </si>
-  <si>
-    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54</t>
-  </si>
-  <si>
-    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15</t>
-  </si>
-  <si>
-    <t>0 0 34 0 97 0</t>
+    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66</t>
+  </si>
+  <si>
+    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33</t>
+  </si>
+  <si>
+    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27</t>
+  </si>
+  <si>
+    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72</t>
+  </si>
+  <si>
+    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2</t>
+  </si>
+  <si>
+    <t>0 0 34 0 97 0 6 -1 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,28 +689,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="M2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="N2">
         <v>25</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>372</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>31</v>
       </c>
-      <c r="F3">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
       <c r="I3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>128</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="M2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N2">
         <v>18</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
       <c r="Q2">
-        <v>355</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>27</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>152</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,13 +1239,13 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>7</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Bears/2021 Team Data.xlsx
+++ b/Base/Teams/Bears/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3</t>
-  </si>
-  <si>
-    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19</t>
-  </si>
-  <si>
-    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1</t>
-  </si>
-  <si>
-    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13</t>
+    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1</t>
+  </si>
+  <si>
+    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15</t>
+  </si>
+  <si>
+    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2</t>
+  </si>
+  <si>
+    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66</t>
-  </si>
-  <si>
-    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33</t>
-  </si>
-  <si>
-    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27</t>
-  </si>
-  <si>
-    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72</t>
-  </si>
-  <si>
-    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2</t>
-  </si>
-  <si>
-    <t>0 0 34 0 97 0 6 -1 0 0 0 0</t>
+    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66 62 66 46 54</t>
+  </si>
+  <si>
+    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33 23 40 13 16</t>
+  </si>
+  <si>
+    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27 22 30 20 8 14</t>
+  </si>
+  <si>
+    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72 64 28 43</t>
+  </si>
+  <si>
+    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2 0 0 15</t>
+  </si>
+  <si>
+    <t>0 0 34 0 97 0 6 -1 0 0 0 0 4 28 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>129</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>444</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>74</v>
+      </c>
+      <c r="G3">
         <v>34</v>
       </c>
-      <c r="F3">
-        <v>69</v>
-      </c>
-      <c r="G3">
-        <v>33</v>
-      </c>
       <c r="H3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="M3">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="N3">
         <v>21</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>422</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -976,10 +976,10 @@
         <v>126</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2">
         <v>12</v>
@@ -996,37 +996,37 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M3">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="N3">
         <v>22</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L2">
         <v>56</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Bears/2021 Team Data.xlsx
+++ b/Base/Teams/Bears/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1</t>
-  </si>
-  <si>
-    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15</t>
-  </si>
-  <si>
-    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2</t>
-  </si>
-  <si>
-    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15</t>
+    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1 2 0 -1 4 10 5 3 4 7 2 7 7 9 2 2 2 10 4 4 1 4 -1 1 3 3 0</t>
+  </si>
+  <si>
+    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15 3 11 8 4 6 23 18 17 4 6 16 8 8 11 10 3 13</t>
+  </si>
+  <si>
+    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2 8 4 6 2 6 5 4 -1 8 5 1 2 10 8 2 3 3 5 2 -2 4 -3 -1 9 6 4 1 8 3 3 1 1 13 5 7 5 1 3 9 1</t>
+  </si>
+  <si>
+    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15 4 12 12 -4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66 62 66 46 54</t>
-  </si>
-  <si>
-    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33 23 40 13 16</t>
-  </si>
-  <si>
-    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27 22 30 20 8 14</t>
-  </si>
-  <si>
-    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72 64 28 43</t>
-  </si>
-  <si>
-    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2 0 0 15</t>
-  </si>
-  <si>
-    <t>0 0 34 0 97 0 6 -1 0 0 0 0 4 28 0 0</t>
+    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66 62 66 46 54 66 62 63</t>
+  </si>
+  <si>
+    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33 23 40 13 16 26 24 3</t>
+  </si>
+  <si>
+    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27 22 30 20 8 14 16 6</t>
+  </si>
+  <si>
+    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72 64 28 43 42 42 56 52 35</t>
+  </si>
+  <si>
+    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2 0 0 15 15 0 17 0 0</t>
+  </si>
+  <si>
+    <t>0 0 34 0 97 0 6 -1 0 0 0 0 4 28 0 0 1 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="M2">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N2">
         <v>29</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>152</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N2">
         <v>20</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
       <c r="Q2">
-        <v>419</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1008,16 +1008,16 @@
         <v>83</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>29</v>
       </c>
       <c r="I3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>168</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Bears/2021 Team Data.xlsx
+++ b/Base/Teams/Bears/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1 2 0 -1 4 10 5 3 4 7 2 7 7 9 2 2 2 10 4 4 1 4 -1 1 3 3 0</t>
-  </si>
-  <si>
-    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15 3 11 8 4 6 23 18 17 4 6 16 8 8 11 10 3 13</t>
-  </si>
-  <si>
-    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2 8 4 6 2 6 5 4 -1 8 5 1 2 10 8 2 3 3 5 2 -2 4 -3 -1 9 6 4 1 8 3 3 1 1 13 5 7 5 1 3 9 1</t>
-  </si>
-  <si>
-    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15 4 12 12 -4</t>
+    <t>41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 2 2 3 7 8 6 11 14 5 0 -1 0 6 6 5 11 7 2 0 -3 6 1 1 4 4 -1 1 10 6 4 16 1 7 0 -2 1 6 4 2 1 5 4 1 9 4 1 4 4 10 1 4 -1 5 1 11 9 1 4 10 2 3 2 10 1 4 3 3 24 4 -1 5 7 2 23 8 -3 4 -1 4 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 9 2 0 0 1 25 5 4 1 3 7 3 4 2 13 4 2 2 11 3 6 1 2 14 3 16 0 29 1 1 6 4 0 6 13 5 12 6 0 6 0 8 8 1 2 -1 4 -1 -1 1 1 8 2 6 16 -1 4 22 9 -2 1 3 6 9 6 3 2 3 4 16 3 9 3 16 2 0 15 -3 -4 4 -4 4 6 3 0 14 8 4 0 0 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 7 2 0 0 0 1 2 4 8 4 0 2 6 0 0 3 3 5 4 5 12 -1 9 1 0 1 0 4 9 2 8 7 3 1 13 0 24 -1 7 -2 1 2 2 3 3 8 1 0 5 5 4 6 5 8 2 1 5 1 20 1 1 3 8 3 8 7 0 20 4 5 2 2 3 11 17 1 9 7 13 -1 1 9 3 4 3 3 -2 16 -1 8 0 4 4 11 -1 2 0 1 -7 5 -2 23 3 4 11 2 2 -2 8 3 2 -2 0 0 1 -2 1 12 8 3 -4 4 4 -1 9 2 20 3 0 -1 1 2 0 -1 4 10 5 3 4 7 2 7 7 9 2 2 2 10 4 4 1 4 -1 1 3 3 0 5 4 6 0 0 3 11 1 3 1 8 6 4 9 3 4 3 3 -1 7 1 0 4 1</t>
+  </si>
+  <si>
+    <t>4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 10 17 -5 3 3 11 2 36 10 5 11 10 13 21 5 0 11 9 9 18 11 10 4 4 21 64 8 8 28 32 6 27 7 4 18 7 2 2 15 8 12 8 9 7 13 14 15 11 20 3 5 3 12 8 11 20 21 8 10 5 15 7 6 5 5 5 3 6 3 17 4 12 4 10 22 20 6 22 12 -6 11 8 5 14 6 11 11 16 6 8 10 4 2 -6 19 22 6 2 9 10 20 5 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 6 29 22 22 23 60 10 2 3 12 9 4 23 3 11 13 8 7 12 33 2 17 52 17 16 8 9 0 10 19 11 16 12 7 13 12 7 12 3 5 6 3 10 7 6 10 34 11 2 1 7 12 11 6 6 2 7 19 0 11 19 8 3 6 46 6 54 6 2 5 6 13 5 11 4 3 22 5 12 27 6 8 9 0 11 6 2 9 11 8 12 11 23 11 6 13 3 16 10 10 17 19 4 1 10 0 8 15 9 15 7 5 16 2 15 16 10 16 14 11 5 30 10 14 15 3 11 8 4 6 23 18 17 4 6 16 8 8 11 10 3 13 14 16 3 5 5 19 11 16 6 18 -1 14 5 8 23 8 20 13 19 6 4 4 6 18 7 7 6 3 11 2 10 6</t>
+  </si>
+  <si>
+    <t>6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 3 2 3 1 8 -1 -3 4 9 5 1 5 10 3 3 5 2 4 3 2 12 1 4 2 2 10 12 4 1 3 13 -1 4 1 11 6 0 3 0 12 1 4 7 29 14 3 5 3 19 1 6 2 -6 4 6 5 4 2 5 5 8 4 5 3 -1 1 3 11 2 -2 2 4 9 2 -1 2 4 6 6 3 1 3 -4 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 16 6 0 3 3 0 5 8 2 6 36 1 -6 28 1 5 1 5 1 0 7 6 8 3 9 3 15 2 4 5 12 3 9 4 11 6 8 12 2 -1 1 12 19 12 9 5 3 1 2 -3 7 1 1 27 1 -1 3 0 4 2 3 11 5 27 1 5 39 -1 12 -2 0 1 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 4 -4 0 0 2 4 0 3 7 1 8 4 2 4 2 6 11 19 3 4 1 8 5 0 9 8 21 2 7 1 2 -4 5 10 7 2 14 -1 -6 10 2 5 4 9 0 -6 9 3 3 6 3 0 -4 2 15 1 2 3 6 11 0 11 5 8 11 1 3 14 0 5 3 6 6 2 1 9 7 1 4 7 10 2 3 10 9 2 0 -1 8 0 5 19 11 -2 6 2 6 0 3 1 3 3 5 3 2 2 4 2 1 3 3 -1 25 5 0 2 3 2 6 5 7 3 10 6 2 32 3 7 32 3 3 7 2 8 4 6 2 6 5 4 -1 8 5 1 2 10 8 2 3 3 5 2 -2 4 -3 -1 9 6 4 1 8 3 3 1 1 13 5 7 5 1 3 9 1 6 3 9 0 3 -3 3 0 4 5 4 25 -2 -1 1 6 5 29 -4 4 8</t>
+  </si>
+  <si>
+    <t>7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 2 7 12 10 3 12 1 2 14 8 7 14 14 22 5 10 15 42 7 13 13 21 7 0 3 18 17 7 18 17 6 4 9 13 26 16 23 15 7 21 5 6 33 17 2 20 11 22 5 9 4 11 9 24 13 25 17 3 8 9 9 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 13 4 0 6 32 1 12 5 11 9 4 10 12 14 13 41 8 -4 6 4 21 4 11 9 10 46 2 9 14 0 9 8 9 7 12 0 34 21 -4 19 11 6 23 16 6 15 50 3 83 15 7 11 19 23 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 0 3 6 16 39 9 10 5 4 -6 9 2 0 -1 17 8 0 11 17 15 7 10 12 23 8 7 12 13 0 4 14 6 6 32 0 7 12 25 12 20 6 13 6 18 38 12 16 8 23 16 12 6 6 8 11 6 4 7 3 5 3 0 2 18 12 4 9 7 7 7 13 7 41 0 9 8 9 13 13 26 3 3 24 9 -3 4 15 4 12 12 -4 3 7 3 25 40 -3 44 9 4 19 7 45 26 21</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66 62 66 46 54 66 62 63</t>
-  </si>
-  <si>
-    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33 23 40 13 16 26 24 3</t>
-  </si>
-  <si>
-    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27 22 30 20 8 14 16 6</t>
-  </si>
-  <si>
-    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72 64 28 43 42 42 56 52 35</t>
-  </si>
-  <si>
-    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2 0 0 15 15 0 17 0 0</t>
-  </si>
-  <si>
-    <t>0 0 34 0 97 0 6 -1 0 0 0 0 4 28 0 0 1 0 0 0</t>
+    <t>70 66 62 67 66 66 62 62 66 64 65 61 56 59 69 62 67 66 66 60 63 64 60 61 66 62 66 46 54 66 62 63 65 65</t>
+  </si>
+  <si>
+    <t>27 18 24 23 21 26 15 15 20 23 17 29 21 19 25 25 35 27 22 21 32 18 19 18 33 23 40 13 16 26 24 3 14 24</t>
+  </si>
+  <si>
+    <t>50 24 13 19 10 22 39 23 31 33 24 32 13 26 27 30 27 31 10 34 24 30 27 25 16 19 26 32 17 17 0 25 19 15 22 27 40 0 42 22 14 18 34 27 22 30 20 8 14 16 6 36</t>
+  </si>
+  <si>
+    <t>36 42 40 47 40 61 61 52 50 63 48 62 55 44 60 43 53 52 44 42 48 43 43 27 50 28 38 44 41 44 43 49 54 31 53 40 34 50 28 46 51 39 53 38 40 49 42 54 44 45 72 64 28 43 42 42 56 52 35 43</t>
+  </si>
+  <si>
+    <t>0 0 0 15 0 14 13 11 23 9 14 24 7 0 22 0 0 0 0 9 16 0 0 0 43 0 0 0 21 7 14 6 3 0 7 12 0 0 0 9 0 0 18 0 0 13 0 15 11 3 2 0 0 15 15 0 17 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 34 0 97 0 6 -1 0 0 0 0 4 28 0 0 1 0 0 0 17 0 9 11 10 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>147</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>511</v>
@@ -721,37 +721,37 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="M3">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>23</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>495</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -952,19 +952,19 @@
         <v>18</v>
       </c>
       <c r="F2">
+        <v>74</v>
+      </c>
+      <c r="G2">
         <v>66</v>
       </c>
-      <c r="G2">
-        <v>61</v>
-      </c>
       <c r="H2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>9</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>130</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -993,16 +993,16 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>83</v>
@@ -1011,22 +1011,22 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="M3">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="N3">
         <v>26</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>478</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,10 +1233,10 @@
         <v>224</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
       <c r="J2">
         <v>114</v>
@@ -1245,10 +1245,10 @@
         <v>107</v>
       </c>
       <c r="L2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
